--- a/WebRoot/oem/heichao/locale/locale-ru.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-ru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="2079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="2083">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7999,6 +7999,22 @@
   </si>
   <si>
     <t>《煤层气生产智能监控系统 V9.3》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
+  </si>
+  <si>
+    <t>userNameEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8104,7 +8120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8126,6 +8142,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8427,10 +8445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8473,7 +8491,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8483,323 +8501,323 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="17" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8807,10 +8825,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8818,10 +8836,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>185</v>
+        <v>1922</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>182</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8829,10 +8847,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>601</v>
+        <v>227</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>598</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8840,10 +8858,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1907</v>
+        <v>185</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>599</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8851,10 +8869,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1908</v>
+        <v>601</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8862,10 +8880,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>633</v>
+        <v>1907</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>204</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8873,10 +8891,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>510</v>
+        <v>1908</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>451</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8884,10 +8902,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1909</v>
+        <v>633</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>452</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8895,10 +8913,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>634</v>
+        <v>510</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>205</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8906,10 +8924,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>210</v>
+        <v>1909</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>201</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8917,10 +8935,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1490</v>
+        <v>634</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8928,10 +8946,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8939,10 +8957,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>635</v>
+        <v>1490</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8950,10 +8968,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1853</v>
+        <v>364</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8961,10 +8979,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1855</v>
+        <v>635</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1854</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8972,10 +8990,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1847</v>
+        <v>1853</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1488</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8983,10 +9001,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1846</v>
+        <v>1855</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>1489</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8994,10 +9012,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1028</v>
+        <v>1847</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>208</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9005,10 +9023,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>605</v>
+        <v>1846</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>209</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9016,10 +9034,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1537</v>
+        <v>1028</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9027,10 +9045,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>605</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9038,10 +9056,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1963</v>
+        <v>1537</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>1962</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9049,10 +9067,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1794</v>
+        <v>51</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>1335</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9060,10 +9078,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1796</v>
+        <v>1963</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>482</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9071,10 +9089,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>483</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9082,10 +9100,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9093,10 +9111,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>1793</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9104,10 +9122,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>470</v>
+        <v>1803</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>469</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9115,10 +9133,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>1336</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9126,10 +9144,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9137,10 +9155,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>336</v>
+        <v>1805</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9148,10 +9166,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1856</v>
+        <v>335</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9159,10 +9177,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9170,10 +9188,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>347</v>
+        <v>1856</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9181,10 +9199,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9192,10 +9210,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9203,10 +9221,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9214,10 +9232,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9225,10 +9243,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1690</v>
+        <v>352</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1691</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9236,10 +9254,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1689</v>
+        <v>361</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9247,10 +9265,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>355</v>
+        <v>1690</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>354</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9258,10 +9276,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>357</v>
+        <v>1689</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9269,10 +9287,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>781</v>
+        <v>355</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9280,10 +9298,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9291,10 +9309,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>317</v>
+        <v>781</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9302,10 +9320,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -9313,10 +9331,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -9324,10 +9342,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -9335,10 +9353,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>362</v>
+        <v>344</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -9346,10 +9364,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>453</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -9357,10 +9375,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>449</v>
+        <v>363</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -9368,10 +9386,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -9379,10 +9397,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1496</v>
+        <v>455</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>1506</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -9390,10 +9408,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1500</v>
+        <v>456</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>500</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -9401,10 +9419,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>501</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -9412,10 +9430,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -9423,10 +9441,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -9434,10 +9452,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -9445,10 +9463,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -9456,10 +9474,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -9467,10 +9485,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -9478,10 +9496,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9489,10 +9507,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1930</v>
+        <v>1499</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>1899</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -9500,10 +9518,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1903</v>
+        <v>1505</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>1904</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -9511,21 +9529,33 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C100" s="12" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="12"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -10181,6 +10211,16 @@
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="12"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="12"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10487,7 +10527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
